--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1427107.346405705</v>
+        <v>1424410.709410894</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12440105.45580827</v>
+        <v>12440071.78437275</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673419</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10634706.25167381</v>
+        <v>10635545.65624477</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>191.4298910353889</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>100.089935168037</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>239.8079481415045</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>138.7376472924526</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>15.81827530391666</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>76.13648971391267</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176906</v>
+        <v>3.296507137407091</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>16.54995261824828</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>409.9696949567378</v>
+        <v>75.68058581113466</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>95.73279365801316</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.2341300636277</v>
+        <v>141.1980529050016</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.0671769136807</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1076770367752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>99.29282514840486</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.59798795483309</v>
+        <v>34.56882291827309</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.286180978941459</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.1040914774867</v>
       </c>
       <c r="T6" t="n">
-        <v>193.7494478464192</v>
+        <v>193.7460334937315</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.836615565179</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>74.07485959842604</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>164.2519223641912</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>63.79266160202857</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3636120623339</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.2962850770747</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7625639129768</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.2442873738851</v>
+        <v>222.2412530163171</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2462080405934</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>43.57134957266327</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>37.63308711920306</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>51.9209691792515</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>85.36610313819132</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>367.6891176434954</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>205.4617064147066</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.15636898111887</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458122</v>
+        <v>86.64179915749274</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403511</v>
+        <v>8.28254627148992</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146327</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>17.83428975706956</v>
+        <v>190.5880277108173</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>356.5845196044187</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8432760127576</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001815</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>85.25887760429593</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>18.22623717053438</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>85.25887760429639</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>115.4764219077141</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>34.32106446352934</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>34.9650244390951</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>19.88691958258267</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.29306638367389</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.4437570891989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701356</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.913765600865</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179876</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427882</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>72.01539947949708</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336594</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.876045741711</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>70.30034983101193</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>113.4862783316168</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>96.36494467178746</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576168</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994143207</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>112.1382188876876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401.100735571566</v>
+        <v>232.541040622065</v>
       </c>
       <c r="C2" t="n">
-        <v>401.100735571566</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="D2" t="n">
-        <v>401.100735571566</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="E2" t="n">
-        <v>158.8704849235816</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="F2" t="n">
-        <v>151.9249841743781</v>
+        <v>32.23201357448885</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
         <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470371</v>
+        <v>40.41888584470348</v>
       </c>
       <c r="K2" t="n">
-        <v>122.982040419296</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605492</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859564</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779383</v>
+        <v>643.3443219779377</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948974</v>
+        <v>813.5133472948971</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444234</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660183</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
         <v>959.2317925660182</v>
@@ -4358,22 +4358,22 @@
         <v>959.2317925660182</v>
       </c>
       <c r="T2" t="n">
-        <v>744.4319308337292</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U2" t="n">
-        <v>643.3309862195504</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="V2" t="n">
-        <v>401.100735571566</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="W2" t="n">
-        <v>401.100735571566</v>
+        <v>717.0015419180338</v>
       </c>
       <c r="X2" t="n">
-        <v>401.100735571566</v>
+        <v>474.7712912700494</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.100735571566</v>
+        <v>232.541040622065</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>324.9566488298909</v>
+        <v>751.4714938010643</v>
       </c>
       <c r="C3" t="n">
-        <v>324.9566488298909</v>
+        <v>611.3324561319203</v>
       </c>
       <c r="D3" t="n">
-        <v>324.9566488298909</v>
+        <v>462.3980464706689</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7191938244354</v>
+        <v>303.1605914652134</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132036</v>
+        <v>156.6260334920984</v>
       </c>
       <c r="G3" t="n">
         <v>19.18463585132036</v>
@@ -4407,25 +4407,25 @@
         <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132036</v>
+        <v>85.30141548166266</v>
       </c>
       <c r="K3" t="n">
-        <v>86.7924555146772</v>
+        <v>152.9092351450195</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303709</v>
+        <v>290.1388331607133</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849755</v>
+        <v>469.6361695153179</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376398</v>
+        <v>668.2929111679823</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064002</v>
+        <v>827.8052238367427</v>
       </c>
       <c r="P3" t="n">
-        <v>870.3780717336988</v>
+        <v>936.4948513640413</v>
       </c>
       <c r="Q3" t="n">
         <v>959.2317925660182</v>
@@ -4437,22 +4437,22 @@
         <v>959.2317925660182</v>
       </c>
       <c r="T3" t="n">
-        <v>943.2537367034761</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U3" t="n">
-        <v>943.2537367034761</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="V3" t="n">
-        <v>943.2537367034761</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="W3" t="n">
-        <v>701.0234860554917</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="X3" t="n">
-        <v>493.171985849959</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="Y3" t="n">
-        <v>493.171985849959</v>
+        <v>751.4714938010643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.2194118764863</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="C4" t="n">
-        <v>268.2194118764863</v>
+        <v>790.2956096381113</v>
       </c>
       <c r="D4" t="n">
-        <v>191.313866710918</v>
+        <v>640.1789702257755</v>
       </c>
       <c r="E4" t="n">
-        <v>191.313866710918</v>
+        <v>492.2658766433824</v>
       </c>
       <c r="F4" t="n">
-        <v>191.313866710918</v>
+        <v>345.375929145472</v>
       </c>
       <c r="G4" t="n">
-        <v>191.313866710918</v>
+        <v>176.7690841408554</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068305</v>
+        <v>22.51444104062045</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068305</v>
+        <v>22.51444104062045</v>
       </c>
       <c r="J4" t="n">
         <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>63.76336012264349</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>248.5963550234617</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669861</v>
+        <v>453.8659557426996</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584441</v>
+        <v>659.6893205788037</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470428</v>
+        <v>833.7842159674026</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456583</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="Q4" t="n">
         <v>959.2317925660182</v>
@@ -4525,13 +4525,13 @@
         <v>959.2317925660182</v>
       </c>
       <c r="W4" t="n">
-        <v>717.0015419180338</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="X4" t="n">
-        <v>489.0119910200165</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.2194118764863</v>
+        <v>959.2317925660182</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1243.573924169979</v>
+        <v>212.9245033231343</v>
       </c>
       <c r="C5" t="n">
-        <v>874.611407229567</v>
+        <v>212.9245033231343</v>
       </c>
       <c r="D5" t="n">
-        <v>874.611407229567</v>
+        <v>212.9245033231343</v>
       </c>
       <c r="E5" t="n">
-        <v>857.8942833727506</v>
+        <v>212.9245033231343</v>
       </c>
       <c r="F5" t="n">
-        <v>446.908378583143</v>
+        <v>205.9790025739309</v>
       </c>
       <c r="G5" t="n">
-        <v>32.79757559653903</v>
+        <v>129.5339664010676</v>
       </c>
       <c r="H5" t="n">
-        <v>32.79757559653903</v>
+        <v>129.5339664010676</v>
       </c>
       <c r="I5" t="n">
-        <v>32.79757559653903</v>
+        <v>32.83417482731691</v>
       </c>
       <c r="J5" t="n">
-        <v>103.5111993729229</v>
+        <v>103.6808269615512</v>
       </c>
       <c r="K5" t="n">
-        <v>260.231109043753</v>
+        <v>260.6001116567558</v>
       </c>
       <c r="L5" t="n">
-        <v>491.5577769707314</v>
+        <v>492.174121931416</v>
       </c>
       <c r="M5" t="n">
-        <v>780.6227043607042</v>
+        <v>781.5142653409526</v>
       </c>
       <c r="N5" t="n">
-        <v>1078.978812862757</v>
+        <v>1080.150043145495</v>
       </c>
       <c r="O5" t="n">
-        <v>1347.372764490626</v>
+        <v>1348.808078565217</v>
       </c>
       <c r="P5" t="n">
-        <v>1541.939791832526</v>
+        <v>1543.600495313672</v>
       </c>
       <c r="Q5" t="n">
-        <v>1639.878779826951</v>
+        <v>1641.708741365846</v>
       </c>
       <c r="R5" t="n">
-        <v>1639.878779826951</v>
+        <v>1641.708741365846</v>
       </c>
       <c r="S5" t="n">
-        <v>1497.218042388944</v>
+        <v>1499.084445502207</v>
       </c>
       <c r="T5" t="n">
-        <v>1497.218042388944</v>
+        <v>1286.895377912631</v>
       </c>
       <c r="U5" t="n">
-        <v>1243.573924169979</v>
+        <v>1286.895377912631</v>
       </c>
       <c r="V5" t="n">
-        <v>1243.573924169979</v>
+        <v>955.8324905690603</v>
       </c>
       <c r="W5" t="n">
-        <v>1243.573924169979</v>
+        <v>603.0638352989461</v>
       </c>
       <c r="X5" t="n">
-        <v>1243.573924169979</v>
+        <v>603.0638352989461</v>
       </c>
       <c r="Y5" t="n">
-        <v>1243.573924169979</v>
+        <v>212.9245033231343</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550.3699321250123</v>
+        <v>168.0479607532542</v>
       </c>
       <c r="C6" t="n">
-        <v>375.9169028438853</v>
+        <v>168.0479607532542</v>
       </c>
       <c r="D6" t="n">
-        <v>226.982493182634</v>
+        <v>168.0479607532542</v>
       </c>
       <c r="E6" t="n">
-        <v>67.74503817717851</v>
+        <v>67.75217777506751</v>
       </c>
       <c r="F6" t="n">
-        <v>67.74503817717851</v>
+        <v>67.75217777506751</v>
       </c>
       <c r="G6" t="n">
-        <v>67.74503817717851</v>
+        <v>67.75217777506751</v>
       </c>
       <c r="H6" t="n">
-        <v>67.74503817717851</v>
+        <v>67.75217777506751</v>
       </c>
       <c r="I6" t="n">
-        <v>32.79757559653903</v>
+        <v>32.83417482731691</v>
       </c>
       <c r="J6" t="n">
-        <v>56.09627852394024</v>
+        <v>76.80753736163591</v>
       </c>
       <c r="K6" t="n">
-        <v>432.0785659106566</v>
+        <v>194.9189743726133</v>
       </c>
       <c r="L6" t="n">
-        <v>637.0344237437707</v>
+        <v>400.0569184456706</v>
       </c>
       <c r="M6" t="n">
-        <v>895.5651108640025</v>
+        <v>658.800091619463</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.346980905985</v>
+        <v>938.8000715885723</v>
       </c>
       <c r="O6" t="n">
-        <v>1409.072936970678</v>
+        <v>1172.725555625352</v>
       </c>
       <c r="P6" t="n">
-        <v>1577.325556113588</v>
+        <v>1579.048469113399</v>
       </c>
       <c r="Q6" t="n">
-        <v>1639.878779826951</v>
+        <v>1641.708741365846</v>
       </c>
       <c r="R6" t="n">
-        <v>1639.878779826951</v>
+        <v>1640.409568659844</v>
       </c>
       <c r="S6" t="n">
-        <v>1639.878779826951</v>
+        <v>1496.870082318948</v>
       </c>
       <c r="T6" t="n">
-        <v>1444.17226685077</v>
+        <v>1301.167018183866</v>
       </c>
       <c r="U6" t="n">
-        <v>1444.17226685077</v>
+        <v>1073.049224683685</v>
       </c>
       <c r="V6" t="n">
-        <v>1209.020158619028</v>
+        <v>837.8971164519426</v>
       </c>
       <c r="W6" t="n">
-        <v>1134.197068115567</v>
+        <v>583.659759723741</v>
       </c>
       <c r="X6" t="n">
-        <v>926.3455679100341</v>
+        <v>375.8082595182082</v>
       </c>
       <c r="Y6" t="n">
-        <v>718.5852691450802</v>
+        <v>168.0479607532542</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.7076841265769</v>
+        <v>244.1611542464682</v>
       </c>
       <c r="C7" t="n">
-        <v>334.7966514354746</v>
+        <v>244.1611542464682</v>
       </c>
       <c r="D7" t="n">
-        <v>184.6800120231389</v>
+        <v>179.7241223252273</v>
       </c>
       <c r="E7" t="n">
-        <v>184.6800120231389</v>
+        <v>179.7241223252273</v>
       </c>
       <c r="F7" t="n">
-        <v>184.6800120231389</v>
+        <v>32.83417482731691</v>
       </c>
       <c r="G7" t="n">
-        <v>184.6800120231389</v>
+        <v>32.83417482731691</v>
       </c>
       <c r="H7" t="n">
-        <v>32.79757559653903</v>
+        <v>32.83417482731691</v>
       </c>
       <c r="I7" t="n">
-        <v>32.79757559653903</v>
+        <v>32.83417482731691</v>
       </c>
       <c r="J7" t="n">
-        <v>33.7669571028848</v>
+        <v>33.85326317795629</v>
       </c>
       <c r="K7" t="n">
-        <v>165.1967854136311</v>
+        <v>165.3647751032162</v>
       </c>
       <c r="L7" t="n">
-        <v>388.9081505482008</v>
+        <v>389.1806671416791</v>
       </c>
       <c r="M7" t="n">
-        <v>635.1695415291836</v>
+        <v>635.5522670870639</v>
       </c>
       <c r="N7" t="n">
-        <v>881.0100034757646</v>
+        <v>881.5003174752027</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.067165000744</v>
+        <v>1092.656854339655</v>
       </c>
       <c r="P7" t="n">
-        <v>1249.142345707824</v>
+        <v>1249.817067817274</v>
       </c>
       <c r="Q7" t="n">
-        <v>1274.45797882655</v>
+        <v>1275.19157321873</v>
       </c>
       <c r="R7" t="n">
-        <v>1155.976882789101</v>
+        <v>1275.19157321873</v>
       </c>
       <c r="S7" t="n">
-        <v>953.1864141901348</v>
+        <v>1275.19157321873</v>
       </c>
       <c r="T7" t="n">
-        <v>728.6972350245942</v>
+        <v>1050.705459060834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.6972350245942</v>
+        <v>761.5678751814462</v>
       </c>
       <c r="V7" t="n">
-        <v>728.6972350245942</v>
+        <v>761.5678751814462</v>
       </c>
       <c r="W7" t="n">
-        <v>728.6972350245942</v>
+        <v>472.1507051444856</v>
       </c>
       <c r="X7" t="n">
-        <v>500.7076841265769</v>
+        <v>244.1611542464682</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.7076841265769</v>
+        <v>244.1611542464682</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1262.465201337208</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1262.465201337208</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1262.465201337208</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>876.6769487389633</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>465.6910439493558</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2524.326109087829</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2524.326109087829</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2270.745048352009</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>1939.682161008438</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.530799662409</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="X8" t="n">
-        <v>1649.065041401329</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1649.065041401329</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182517</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057869</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,25 +4884,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>845.991191822219</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>582.3948540689164</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>432.2782146565806</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>284.3651210741875</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>137.4751735762772</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4960,25 +4960,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4996,16 +4996,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2224.625962016632</v>
+        <v>1649.992530730186</v>
       </c>
       <c r="C11" t="n">
-        <v>1855.66344507622</v>
+        <v>1649.992530730186</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.39774646947</v>
+        <v>1291.726832123436</v>
       </c>
       <c r="E11" t="n">
-        <v>1111.609493871225</v>
+        <v>905.9385795251915</v>
       </c>
       <c r="F11" t="n">
-        <v>700.6235890816179</v>
+        <v>494.9526747355839</v>
       </c>
       <c r="G11" t="n">
-        <v>286.0481434112643</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="H11" t="n">
-        <v>78.511066224692</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="I11" t="n">
-        <v>78.511066224692</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>317.3880320746712</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420332</v>
+        <v>723.2234501947039</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1263.599934653015</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878113</v>
+        <v>1896.542330458667</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765429</v>
+        <v>2544.340204328189</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687107</v>
+        <v>3142.70210599071</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985629</v>
+        <v>3618.889144608858</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882249</v>
+        <v>3928.313032718601</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.5533112346</v>
+        <v>4022.8933421117</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.5533112346</v>
+        <v>3925.765696676227</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.5533112346</v>
+        <v>3722.316578060838</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.062594867208</v>
+        <v>3468.832312715606</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523637</v>
+        <v>3137.769425372036</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.231052253524</v>
+        <v>2785.000770101921</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.765293992444</v>
+        <v>2411.535011840841</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.625962016632</v>
+        <v>2021.39567986503</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550305</v>
+        <v>88.82407519727434</v>
       </c>
       <c r="I12" t="n">
-        <v>78.511066224692</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792133</v>
+        <v>202.7540031635559</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376513</v>
+        <v>415.2285000159399</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649617</v>
+        <v>415.2285000159399</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908852</v>
+        <v>939.2566908345514</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.07202125992</v>
+        <v>1491.562993485332</v>
       </c>
       <c r="O12" t="n">
-        <v>1991.670362601621</v>
+        <v>1974.595563417533</v>
       </c>
       <c r="P12" t="n">
-        <v>2351.938665441777</v>
+        <v>2342.938719448448</v>
       </c>
       <c r="Q12" t="n">
-        <v>2542.849288629729</v>
+        <v>2539.247168151212</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004.081882663713</v>
+        <v>544.1970908504445</v>
       </c>
       <c r="C13" t="n">
-        <v>835.1456997358065</v>
+        <v>375.2609079225375</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234707</v>
+        <v>375.2609079225375</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410776</v>
+        <v>227.3478143401444</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431672</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="G13" t="n">
-        <v>222.74612171971</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="H13" t="n">
-        <v>78.511066224692</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="I13" t="n">
-        <v>78.511066224692</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600406</v>
+        <v>143.5350566283902</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457714</v>
+        <v>377.0270927076819</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888929</v>
+        <v>731.3429449977129</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1115.308455583784</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1495.578740955085</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715851</v>
+        <v>1830.803602510217</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082523</v>
+        <v>2094.125701226117</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2193.001193167697</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014276</v>
+        <v>2193.001193167697</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014276</v>
+        <v>2193.001193167697</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.288681564322</v>
+        <v>1972.341685948954</v>
       </c>
       <c r="U13" t="n">
-        <v>1566.19797500461</v>
+        <v>1683.252952370918</v>
       </c>
       <c r="V13" t="n">
-        <v>1311.513486798723</v>
+        <v>1428.568464165031</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.096316761763</v>
+        <v>1139.15129412807</v>
       </c>
       <c r="X13" t="n">
-        <v>1004.081882663713</v>
+        <v>946.6381348242143</v>
       </c>
       <c r="Y13" t="n">
-        <v>1004.081882663713</v>
+        <v>725.8455556806842</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555042</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614631</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007881</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409637</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
@@ -5276,10 +5276,10 @@
         <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.39853312617</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856056</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594976</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619164</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>106.3138404733493</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>106.3138404733493</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>106.3138404733493</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254768</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124813</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220726</v>
+        <v>1034.164739009914</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9389116338947</v>
+        <v>865.2285560820076</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9389116338947</v>
+        <v>715.1119166696717</v>
       </c>
       <c r="E16" t="n">
-        <v>260.0258180515016</v>
+        <v>567.1988230872787</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515016</v>
+        <v>420.3088755893684</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608048</v>
+        <v>253.0946807639471</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>111.2219638023776</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608048</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107598</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.66745682198</v>
+        <v>2208.696992124549</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136707</v>
+        <v>2208.696992124549</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.90675493082</v>
+        <v>1954.012503918662</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1664.595333881702</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958424</v>
+        <v>1436.605782983684</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523123</v>
+        <v>1215.813203840154</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>583.5439560698319</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1175.56231032196</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1797.658273721296</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2344.53474872149</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733341</v>
+        <v>494.058990022073</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454272</v>
+        <v>494.058990022073</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330914</v>
+        <v>407.9389116338948</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330914</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330914</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.27452942083</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.673064443771</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545121</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X19" t="n">
-        <v>982.506628647104</v>
+        <v>896.5000339958428</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035738</v>
+        <v>675.7074548523127</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>841.9378825128742</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.8410298377091</v>
+        <v>964.7673076102601</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253735</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429805</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429805</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="U22" t="n">
-        <v>1957.373282952344</v>
+        <v>2139.299560724895</v>
       </c>
       <c r="V22" t="n">
-        <v>1702.688794746457</v>
+        <v>1884.615072519008</v>
       </c>
       <c r="W22" t="n">
-        <v>1413.271624709496</v>
+        <v>1595.197902482047</v>
       </c>
       <c r="X22" t="n">
-        <v>1185.282073811479</v>
+        <v>1367.20835158403</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.4894946679489</v>
+        <v>1146.4157724405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180517</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D25" t="n">
-        <v>449.4852666057161</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,16 +6497,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797767</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832665</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832665</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832665</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176863</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970976</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934015</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035998</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892468</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6701,19 +6701,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,22 +6725,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511903</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232834</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232835</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270414</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.365421478097</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.290194822295</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.188536579447</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,25 +6938,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>697.527634571197</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>697.527634571197</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>697.527634571197</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888039</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1617.375399479945</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.1760994014368</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7266,13 +7266,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078134</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799065</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851774</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851774</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2265.284775457292</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2045.683310480233</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1756.608083824431</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1501.923595618544</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1212.506425581583</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1212.506425581583</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.7138464380531</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,7 +7597,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1688.385853854706</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,16 +7667,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703134</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424066</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133953</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7813,13 +7813,13 @@
         <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853363</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831767</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138436</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928483</v>
+        <v>73.01783107116312</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.7846258892349</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>49.7041650069893</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>111.3252676074454</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.72614018220111</v>
+        <v>28.6266895265544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>20.80346346294677</v>
       </c>
       <c r="K6" t="n">
-        <v>260.6123923192525</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>240.313288441252</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L9" t="n">
-        <v>129.4330134067488</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>15.04472401998521</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>84.10701026597059</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238004</v>
+        <v>19.53007201344977</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114088</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703403</v>
+        <v>88.63818461247369</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.39811087628544</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>207.8753656319676</v>
+        <v>35.12162767821982</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>50.29152613729269</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.29152613729271</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>81.9879434943319</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>63.57833957387467</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>63.35659541391597</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>65.54986409393049</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729028</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>132.2817966595327</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>266.2975548066615</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>100.1408962628953</v>
+        <v>125.505489761042</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>100.1408962628959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.91821458107228</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194181</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194507</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>145.3900508477912</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>181.8372934928161</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>67.54000767002779</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>190.1580536648036</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>107.2784330767803</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>139.9994244361404</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>943718.8787335351</v>
+        <v>943725.6130206413</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841386.9606674148</v>
+        <v>851437.3237843579</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915213.6223930309</v>
+        <v>915213.6223930313</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920238.8039515032</v>
+        <v>915213.6223930315</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920238.8039515034</v>
+        <v>915213.6223930315</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>460660.0452039824</v>
+        <v>466243.5802689509</v>
       </c>
       <c r="F2" t="n">
-        <v>501674.8572737692</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062539</v>
+        <v>501674.8572737694</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800888</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>188359.3659153336</v>
+        <v>188865.7817249482</v>
       </c>
       <c r="D3" t="n">
-        <v>237873.3608784676</v>
+        <v>237393.9769286975</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357084</v>
+        <v>348407.0423979642</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051357</v>
+        <v>143852.0300046387</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>6.028390089340974e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744842</v>
       </c>
       <c r="J3" t="n">
         <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>43794.18845434296</v>
+        <v>43911.93183967849</v>
       </c>
       <c r="L3" t="n">
-        <v>58366.6156747352</v>
+        <v>58250.82897577508</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456872</v>
+        <v>90993.97560824302</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848847</v>
+        <v>37822.10612282957</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>2.18870809476357e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>210674.4096404444</v>
+        <v>210539.1780328205</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12897.74318952439</v>
+        <v>12910.33839420539</v>
       </c>
       <c r="F4" t="n">
         <v>12990.33152560508</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12990.33152560508</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12990.33152560508</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26451,10 +26451,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26470,22 +26470,22 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>74684.80313834056</v>
+        <v>74721.20384882513</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214726</v>
+        <v>88006.19635166996</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-461303.8480553115</v>
+        <v>-461303.8480553116</v>
       </c>
       <c r="C6" t="n">
-        <v>39432.52747105854</v>
+        <v>39024.94255858325</v>
       </c>
       <c r="D6" t="n">
-        <v>38388.87886404598</v>
+        <v>38868.2628138162</v>
       </c>
       <c r="E6" t="n">
-        <v>36481.46081660237</v>
+        <v>16732.37302152642</v>
       </c>
       <c r="F6" t="n">
-        <v>222021.0501291901</v>
+        <v>244644.4622341215</v>
       </c>
       <c r="G6" t="n">
-        <v>379179.9945999369</v>
+        <v>388496.4922387598</v>
       </c>
       <c r="H6" t="n">
-        <v>390347.2308355162</v>
+        <v>388496.4922387602</v>
       </c>
       <c r="I6" t="n">
-        <v>390347.2308355161</v>
+        <v>379493.5794526318</v>
       </c>
       <c r="J6" t="n">
-        <v>327602.9200519802</v>
+        <v>327568.1821265445</v>
       </c>
       <c r="K6" t="n">
-        <v>346553.0423811734</v>
+        <v>346400.5610704019</v>
       </c>
       <c r="L6" t="n">
-        <v>331980.615160781</v>
+        <v>332061.6639343054</v>
       </c>
       <c r="M6" t="n">
-        <v>305417.6364909475</v>
+        <v>299318.5173018374</v>
       </c>
       <c r="N6" t="n">
-        <v>346564.8242770276</v>
+        <v>352490.3867872508</v>
       </c>
       <c r="O6" t="n">
-        <v>387323.9328582913</v>
+        <v>390312.4929100801</v>
       </c>
       <c r="P6" t="n">
-        <v>390347.2308355162</v>
+        <v>390312.4929100805</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380645</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>739.9562240812343</v>
+        <v>740.3500449570764</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1232.028328053766</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>409.9696949567378</v>
+        <v>410.4271853414614</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086499</v>
+        <v>1005.723335527925</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380645</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>146.4801237431698</v>
+        <v>146.8739446190118</v>
       </c>
       <c r="D3" t="n">
-        <v>194.1086680363048</v>
+        <v>193.7148471604628</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770184</v>
+        <v>297.9634359362273</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218279</v>
+        <v>126.0127206626189</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,43 +27012,43 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>170.1617468152333</v>
+        <v>170.6192371999568</v>
       </c>
       <c r="D4" t="n">
-        <v>230.615137143301</v>
+        <v>230.1576467585775</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086111</v>
+        <v>365.1385034278862</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173561</v>
+        <v>154.4219547980809</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="J4" t="n">
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.1617468152333</v>
+        <v>170.6192371999568</v>
       </c>
       <c r="L4" t="n">
-        <v>230.615137143301</v>
+        <v>230.1576467585772</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086111</v>
+        <v>365.1385034278865</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173561</v>
+        <v>154.4219547980809</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.1617468152333</v>
+        <v>170.6192371999568</v>
       </c>
       <c r="L4" t="n">
-        <v>230.615137143301</v>
+        <v>230.1576467585775</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086111</v>
+        <v>365.1385034278862</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173561</v>
+        <v>154.4219547980809</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>173.8430007356186</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307572</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>151.0648510542636</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>87.94431032863037</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>109.4330205759085</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>129.9231525369645</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>146.429990514549</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>33.97085169586313</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958671</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183517</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>179.2011275775966</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941507</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>72.47898330429969</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.39933474436195</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001187</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>365.3804174540135</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>2.358344170130944</v>
+        <v>336.6458701162333</v>
       </c>
       <c r="H5" t="n">
-        <v>309.0101722469352</v>
+        <v>308.9939583050469</v>
       </c>
       <c r="I5" t="n">
-        <v>95.79382995677058</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.0741073694958</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1075503808151</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>58.35225530699608</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7519132095265</v>
+        <v>135.7510661231143</v>
       </c>
       <c r="H6" t="n">
-        <v>96.86390078907309</v>
+        <v>96.85571971767115</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33877464232279</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.119825736064</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8366712945482</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>177.6201235624936</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>2.994898734436646</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>84.82281141618378</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6566320691319</v>
+        <v>166.6559219003395</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.3572980161605</v>
       </c>
       <c r="I7" t="n">
-        <v>115.32301280823</v>
+        <v>115.3016560958155</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>117.2643533057318</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7501876077474</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2462467770731</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>367.9763532002907</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>85.8191282795913</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>80.94049690661286</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28068,10 +28068,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4.745282893593835e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.970228583809345e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.648459146963433e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-7.198262086896292e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29967,7 +29967,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-7.032208304403592e-13</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>4.798841391264194e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-3.145283497172453e-14</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-2.152747883824943e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.253640596249206e-12</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -31045,37 +31045,37 @@
         <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651553</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937399</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779018</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712527</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
         <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359666</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822515</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426697</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
         <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411495</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810512</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
         <v>10.44398644916533</v>
@@ -31121,10 +31121,10 @@
         <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>12.328626159853</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182837</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
         <v>120.6044214847382</v>
@@ -31133,34 +31133,34 @@
         <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512819</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842451</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.005087490065</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947074</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671571</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
         <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080797</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
         <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308312</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,13 +31200,13 @@
         <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207007</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
         <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490372</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
@@ -31218,7 +31218,7 @@
         <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441089</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
         <v>151.2683017714136</v>
@@ -31227,16 +31227,16 @@
         <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104774</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937813</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685359</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.57268470752279</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
         <v>0.05837469839390805</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.974698388266266</v>
+        <v>2.976281587767139</v>
       </c>
       <c r="H5" t="n">
-        <v>30.46462986883191</v>
+        <v>30.48084381072022</v>
       </c>
       <c r="I5" t="n">
-        <v>114.6820596136353</v>
+        <v>114.7430959123927</v>
       </c>
       <c r="J5" t="n">
-        <v>252.4738073311142</v>
+        <v>252.6081794097514</v>
       </c>
       <c r="K5" t="n">
-        <v>378.3927901064254</v>
+        <v>378.5941790199345</v>
       </c>
       <c r="L5" t="n">
-        <v>469.4297159063292</v>
+        <v>469.6795566615632</v>
       </c>
       <c r="M5" t="n">
-        <v>522.3310083686594</v>
+        <v>522.609004348017</v>
       </c>
       <c r="N5" t="n">
-        <v>530.7828701643209</v>
+        <v>531.0653644092605</v>
       </c>
       <c r="O5" t="n">
-        <v>501.2032130659982</v>
+        <v>501.469964370901</v>
       </c>
       <c r="P5" t="n">
-        <v>427.7653466056747</v>
+        <v>427.9930126728996</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.233960575889</v>
+        <v>321.4049283109889</v>
       </c>
       <c r="R5" t="n">
-        <v>186.859397631931</v>
+        <v>186.9588482875777</v>
       </c>
       <c r="S5" t="n">
-        <v>67.78593952261761</v>
+        <v>67.82201668124375</v>
       </c>
       <c r="T5" t="n">
-        <v>13.02174219463559</v>
+        <v>13.02867265045066</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2379758710613012</v>
+        <v>0.2381025270213711</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.591603953684164</v>
+        <v>1.592451040096353</v>
       </c>
       <c r="H6" t="n">
-        <v>15.37154344742338</v>
+        <v>15.37972451882531</v>
       </c>
       <c r="I6" t="n">
-        <v>54.79864489658198</v>
+        <v>54.82780993314199</v>
       </c>
       <c r="J6" t="n">
-        <v>150.371670027678</v>
+        <v>150.4517011171735</v>
       </c>
       <c r="K6" t="n">
-        <v>257.009134924517</v>
+        <v>257.1459208036291</v>
       </c>
       <c r="L6" t="n">
-        <v>345.5804988032218</v>
+        <v>345.7644242981139</v>
       </c>
       <c r="M6" t="n">
-        <v>403.2761421242726</v>
+        <v>403.4907745016066</v>
       </c>
       <c r="N6" t="n">
-        <v>413.9496616206898</v>
+        <v>414.1699746783932</v>
       </c>
       <c r="O6" t="n">
-        <v>378.6830687522143</v>
+        <v>378.8846121583634</v>
       </c>
       <c r="P6" t="n">
-        <v>303.9265479627243</v>
+        <v>304.0883043145396</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.1668485439646</v>
+        <v>203.2749783814222</v>
       </c>
       <c r="R6" t="n">
-        <v>98.81905951032034</v>
+        <v>98.87165317370167</v>
       </c>
       <c r="S6" t="n">
-        <v>29.56334536777382</v>
+        <v>29.5790796263511</v>
       </c>
       <c r="T6" t="n">
-        <v>6.415280848402396</v>
+        <v>6.418695201090123</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047107864265898</v>
+        <v>0.1047665157958127</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.334347289326816</v>
+        <v>1.335057458119318</v>
       </c>
       <c r="H7" t="n">
-        <v>11.8635604451057</v>
+        <v>11.86987449127904</v>
       </c>
       <c r="I7" t="n">
-        <v>40.12746211902825</v>
+        <v>40.14881883144277</v>
       </c>
       <c r="J7" t="n">
-        <v>94.33835335540587</v>
+        <v>94.38856228903578</v>
       </c>
       <c r="K7" t="n">
-        <v>155.02689415997</v>
+        <v>155.1094028614989</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3810506331886</v>
+        <v>198.4866333643939</v>
       </c>
       <c r="M7" t="n">
-        <v>209.1650028169298</v>
+        <v>209.2763250031945</v>
       </c>
       <c r="N7" t="n">
-        <v>204.1915265567119</v>
+        <v>204.3002017502045</v>
       </c>
       <c r="O7" t="n">
-        <v>188.603924131394</v>
+        <v>188.7043032621742</v>
       </c>
       <c r="P7" t="n">
-        <v>161.3832394291268</v>
+        <v>161.46913111654</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.7333898362664</v>
+        <v>111.7928567885185</v>
       </c>
       <c r="R7" t="n">
-        <v>59.99710630009481</v>
+        <v>60.02903807143768</v>
       </c>
       <c r="S7" t="n">
-        <v>23.2540341239955</v>
+        <v>23.26641042922483</v>
       </c>
       <c r="T7" t="n">
-        <v>5.701302054396393</v>
+        <v>5.704336411964357</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0727825794178264</v>
+        <v>0.07282131589741743</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485655</v>
+        <v>4.952877700718656</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508997</v>
+        <v>50.72365875248494</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380259</v>
+        <v>190.9458175569561</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307184</v>
+        <v>420.3693037513704</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726063</v>
+        <v>630.0246168227911</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216981</v>
+        <v>781.6012477561599</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857436</v>
+        <v>869.6819865663152</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898398</v>
+        <v>883.7543503334822</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294417</v>
+        <v>834.5041726969609</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615145</v>
+        <v>712.2300044604691</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895593</v>
+        <v>534.855071803482</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356985</v>
+        <v>311.1212038677685</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>112.8637006051265</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475346</v>
+        <v>21.68122213489593</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188523</v>
+        <v>0.3962302160574924</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.65002319619112</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191525</v>
+        <v>25.59364507900372</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596489</v>
+        <v>91.23983372851008</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783044</v>
+        <v>250.3690774962848</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202559</v>
+        <v>352.4621428656559</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256423</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845338</v>
+        <v>671.4554387893027</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147148</v>
+        <v>689.2268662760406</v>
       </c>
       <c r="O12" t="n">
-        <v>179.564266001719</v>
+        <v>630.5079312446478</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205476</v>
+        <v>506.0382013849518</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.820787407185</v>
+        <v>338.2731364120455</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533299</v>
+        <v>164.533896338954</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697592</v>
+        <v>49.22301857837451</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.68145314605105</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190412</v>
+        <v>0.1743436313283633</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236087</v>
+        <v>2.221690427637939</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737177</v>
+        <v>19.75284762027188</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691798</v>
+        <v>66.81229031478459</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>157.0735132340023</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619744</v>
+        <v>258.1200333201169</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550918</v>
+        <v>330.3047750326442</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263713</v>
+        <v>348.2600731250998</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973098</v>
+        <v>339.9792269857223</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050063</v>
+        <v>314.0258433537699</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761899</v>
+        <v>268.7033586299557</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>186.0362775361187</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570622</v>
+        <v>99.89528050088404</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929616</v>
+        <v>38.71800499801753</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826915</v>
+        <v>9.492677281725738</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1211831142347968</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>140.4762299467362</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
         <v>740.13237155043</v>
@@ -32090,16 +32090,16 @@
         <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>189.4642825742353</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862159</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>344.3187317059969</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33026,28 +33026,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705364</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292123</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012655</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
         <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393757</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605648</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874002</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>66.78462588923465</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268367</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
         <v>138.6157555714078</v>
@@ -34787,7 +34787,7 @@
         <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067317</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
         <v>161.123548150263</v>
@@ -34796,7 +34796,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.75123316395896</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>45.0290144154779</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493113</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
         <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>147.4099394863212</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
         <v>175.8534296854533</v>
@@ -34875,7 +34875,7 @@
         <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353358</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.42790280442796</v>
+        <v>71.56227488306516</v>
       </c>
       <c r="K5" t="n">
-        <v>158.3029390614448</v>
+        <v>158.504327974954</v>
       </c>
       <c r="L5" t="n">
-        <v>233.663300936342</v>
+        <v>233.913141691576</v>
       </c>
       <c r="M5" t="n">
-        <v>291.9847751413866</v>
+        <v>292.2627711207443</v>
       </c>
       <c r="N5" t="n">
-        <v>301.36980656773</v>
+        <v>301.6523008126696</v>
       </c>
       <c r="O5" t="n">
-        <v>271.1050016443115</v>
+        <v>271.3717529492143</v>
       </c>
       <c r="P5" t="n">
-        <v>196.5323508504052</v>
+        <v>196.7600169176301</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.92827070143952</v>
+        <v>99.09923843653937</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.53404336101133</v>
+        <v>44.41753791345353</v>
       </c>
       <c r="K6" t="n">
-        <v>379.7800882694105</v>
+        <v>119.3044818292701</v>
       </c>
       <c r="L6" t="n">
-        <v>207.0261190233476</v>
+        <v>207.2100445182397</v>
       </c>
       <c r="M6" t="n">
-        <v>261.1421082022543</v>
+        <v>261.3567405795883</v>
       </c>
       <c r="N6" t="n">
-        <v>282.6079495373565</v>
+        <v>282.8282625950599</v>
       </c>
       <c r="O6" t="n">
-        <v>236.0868243077699</v>
+        <v>236.288367713919</v>
       </c>
       <c r="P6" t="n">
-        <v>169.9521405483941</v>
+        <v>410.4271853414614</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.18507445794305</v>
+        <v>63.2932042954007</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9791732387330967</v>
+        <v>1.029382172363</v>
       </c>
       <c r="K7" t="n">
-        <v>132.7574023340872</v>
+        <v>132.8399110356161</v>
       </c>
       <c r="L7" t="n">
-        <v>225.9710758935048</v>
+        <v>226.0766586247101</v>
       </c>
       <c r="M7" t="n">
-        <v>248.7488797787704</v>
+        <v>248.8602019650351</v>
       </c>
       <c r="N7" t="n">
-        <v>248.3236989359405</v>
+        <v>248.4323741294331</v>
       </c>
       <c r="O7" t="n">
-        <v>213.1890520454337</v>
+        <v>213.2894311762139</v>
       </c>
       <c r="P7" t="n">
-        <v>158.6617986940203</v>
+        <v>158.7476903814335</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.57134658457198</v>
+        <v>25.63081353682415</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L9" t="n">
-        <v>427.1133740445989</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040322</v>
+        <v>239.3233992246841</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276258</v>
+        <v>409.9347657778106</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517108</v>
+        <v>545.8348327861727</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584709</v>
+        <v>639.3357533390425</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932489</v>
+        <v>654.3412867368913</v>
       </c>
       <c r="O11" t="n">
-        <v>590.955268607755</v>
+        <v>604.4059612752742</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706245</v>
+        <v>480.9970087051996</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151098</v>
+        <v>312.5493819290325</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156638</v>
+        <v>95.53566605363642</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116377</v>
+        <v>123.5314508296181</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458969</v>
+        <v>214.6207038912969</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457681</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625155</v>
+        <v>529.3214048672844</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313816</v>
+        <v>557.8851541927073</v>
       </c>
       <c r="O12" t="n">
-        <v>36.96802155727457</v>
+        <v>487.9116868002034</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062174</v>
+        <v>372.0637939706215</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211635</v>
+        <v>198.291362326024</v>
       </c>
       <c r="R12" t="n">
-        <v>16.2024045893659</v>
+        <v>18.85439237499006</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701858</v>
+        <v>63.71433311732952</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360916</v>
+        <v>235.850541494234</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112341</v>
+        <v>357.8948002929603</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882119</v>
+        <v>387.8439500869404</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765384</v>
+        <v>384.1113993649509</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619046</v>
+        <v>338.6109712678096</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410834</v>
+        <v>265.9819178948492</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.8756671399838</v>
+        <v>99.87423428442433</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.63860328006948</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
@@ -35738,16 +35738,16 @@
         <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>46.86803812979091</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970737</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>210.3443242916667</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066266</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191338</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060438</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010474</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
@@ -38190,7 +38190,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066273</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
